--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/79.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/79.xlsx
@@ -479,13 +479,13 @@
         <v>-11.938765768108</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69329816745296</v>
+        <v>-10.69407061332062</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.064678330989892</v>
+        <v>-4.096047488598668</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.732051742751795</v>
+        <v>-6.696794171199026</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.28989019158775</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05031217364399</v>
+        <v>-11.05060020430651</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.117047542356796</v>
+        <v>-4.154033297884673</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.747278090956722</v>
+        <v>-6.71745382508327</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.59637078469771</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88582366409442</v>
+        <v>-11.88658301765924</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.861616713914721</v>
+        <v>-3.895342486035008</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.580338137421873</v>
+        <v>-6.550631702273996</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.935898004072255</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73234578123474</v>
+        <v>-12.72904652091863</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.964705506490472</v>
+        <v>-4.006299752618636</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.916666305122974</v>
+        <v>-6.882691779248694</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.312292592329849</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.44040370352097</v>
+        <v>-13.4326923371472</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.717260982781849</v>
+        <v>-3.757428167900265</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.486309218412597</v>
+        <v>-6.456838444715871</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.726657179022773</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.13043352479415</v>
+        <v>-14.12218537400386</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.778925729166379</v>
+        <v>-3.823269358891305</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.659219262043273</v>
+        <v>-6.630730411059677</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.175887691308555</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.73989331437934</v>
+        <v>-14.72795313418768</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.594847951211711</v>
+        <v>-3.634871120998867</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.362076356747457</v>
+        <v>-6.342189148730876</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.652167585358697</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.65166746888282</v>
+        <v>-15.63837878149847</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.441406161906681</v>
+        <v>-3.481403147088154</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.167249798159732</v>
+        <v>-6.160546539104768</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.128266230515284</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.30314045828711</v>
+        <v>-16.28924952497204</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.435017118119919</v>
+        <v>-3.478038425257831</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.729011145138635</v>
+        <v>-5.719283564127233</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.598953870813741</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.82543169555209</v>
+        <v>-16.80373774974335</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.283434435818414</v>
+        <v>-3.32322194415442</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.494423262820588</v>
+        <v>-5.484446928055193</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.049019406314967</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.45408480110325</v>
+        <v>-17.43410594696678</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.394326240887834</v>
+        <v>-3.42805201300812</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.89689056112421</v>
+        <v>-4.886600011090613</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.462606659471909</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.35208585301724</v>
+        <v>-18.33437196727239</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.173878045638851</v>
+        <v>-3.207747833090396</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.253220584213589</v>
+        <v>-4.244186895252798</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.845475516650687</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.09163076363782</v>
+        <v>-19.07986078338311</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.057605304101481</v>
+        <v>-3.092496291174681</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.678625597095916</v>
+        <v>-3.659510834946996</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.194508779509432</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.8429718391188</v>
+        <v>-19.82529723028247</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.986514099670909</v>
+        <v>-3.022661947816915</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.082310479563819</v>
+        <v>-3.06320880971774</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.513268896160524</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.69105194029729</v>
+        <v>-20.66736796445661</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.986972330270369</v>
+        <v>-3.028658222518425</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.460753402152874</v>
+        <v>-2.431099336216364</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.818771432355489</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.40199016920869</v>
+        <v>-21.37614596339913</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.90771152886656</v>
+        <v>-2.949266498086198</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.040948711532927</v>
+        <v>-2.011307737899259</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.123419979289398</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.30539834219632</v>
+        <v>-22.27689639890988</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.815816655220484</v>
+        <v>-2.859466392894799</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.823681945874483</v>
+        <v>-1.800194354576427</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.450173797265034</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.14682755353121</v>
+        <v>-23.11843034866751</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.823344729354477</v>
+        <v>-2.864467652580339</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.338612125588532</v>
+        <v>-1.305213661039289</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.8291269467083299</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.95018434820237</v>
+        <v>-23.9238688194905</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.598405874230781</v>
+        <v>-2.638586151652039</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.111591594313002</v>
+        <v>-1.083390773991924</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.2842060656208559</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.39589870614609</v>
+        <v>-24.36476520998846</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.435917303662119</v>
+        <v>-2.473976628023017</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7207732621846373</v>
+        <v>-0.6922975035038831</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.1531237402977536</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.05884055283973</v>
+        <v>-25.02862351788103</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.218441061158207</v>
+        <v>-2.251211095171048</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5923639559129881</v>
+        <v>-0.5760116696636722</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4578232721464109</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.62986134128161</v>
+        <v>-25.60040365988773</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.212287678822596</v>
+        <v>-2.244664943750185</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2053947608200906</v>
+        <v>-0.1802051701526097</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6194179941214637</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.06864987102206</v>
+        <v>-26.03962423562195</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.150963332311951</v>
+        <v>-2.179347444872814</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2533518661293332</v>
+        <v>-0.2327707660621398</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6259105880394856</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.34417738432619</v>
+        <v>-26.31473279523514</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.80097989274693</v>
+        <v>-1.82783220587531</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2379291333817799</v>
+        <v>-0.2188667404442268</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.4814638290659239</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.25873701598108</v>
+        <v>-26.22837596569112</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.694277624586862</v>
+        <v>-1.71686184698884</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.3976159511423128</v>
+        <v>-0.3795092963122056</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.2044084687084692</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.16625298870713</v>
+        <v>-26.1265833110967</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.766363844033406</v>
+        <v>-1.78702349791765</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3664300857733213</v>
+        <v>-0.3551707053294368</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.1896866977094395</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.34246229265392</v>
+        <v>-26.30996719700076</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.483845041011799</v>
+        <v>-1.504792725558561</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7032819455880913</v>
+        <v>-0.6942482566273003</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.6718564247254366</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.24767402007982</v>
+        <v>-26.20601431243745</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.38834978408425</v>
+        <v>-1.40488536257335</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.779767178789455</v>
+        <v>-0.7728544428890236</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.212970316444433</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.06579574900256</v>
+        <v>-26.02874453196048</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.467924800756261</v>
+        <v>-1.483975964040217</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9240050791967511</v>
+        <v>-0.9189252656941613</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.793566598023727</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.730829180797</v>
+        <v>-25.69428856356575</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.379407741243351</v>
+        <v>-1.394634089448278</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.410371037464033</v>
+        <v>-1.407778761501371</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.391127911858552</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.74144703840164</v>
+        <v>-25.70120129946618</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.208579373764509</v>
+        <v>-1.221580030486343</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.69706628509215</v>
+        <v>-1.689446564838266</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.994985668341207</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.39351909038277</v>
+        <v>-25.35405888961781</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.176293754956812</v>
+        <v>-1.187212735526812</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.195464069670978</v>
+        <v>-2.185867411687993</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.603539223134241</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.85458753620596</v>
+        <v>-24.82348022465402</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.194086194518718</v>
+        <v>-1.201863022406704</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.303999260228887</v>
+        <v>-2.296379539975003</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.209254623663621</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.43479593788886</v>
+        <v>-24.39867427434853</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.360633378968315</v>
+        <v>-1.367546114868747</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.521776625698159</v>
+        <v>-2.520244826265677</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.818020038788348</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.78950251542586</v>
+        <v>-23.75673248141302</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.36029297909443</v>
+        <v>-1.367677037897164</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.722507812867503</v>
+        <v>-2.727312688010416</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.433405782832929</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.03305544183661</v>
+        <v>-23.00238017627845</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.337892048932237</v>
+        <v>-1.343076600857561</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.844698275289332</v>
+        <v>-2.841922707086886</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.046625227926972</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.65565672012102</v>
+        <v>-22.62862111475285</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.415634143206407</v>
+        <v>-1.422324309958529</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.151045069482881</v>
+        <v>-3.144276348913708</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.660681671008594</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.00452413059061</v>
+        <v>-21.96939748206626</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.332354004830187</v>
+        <v>-1.342762385589359</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.378340539118087</v>
+        <v>-3.370747003469885</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.26868000465192</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.51687512664484</v>
+        <v>-21.48163064739492</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.501689849785072</v>
+        <v>-1.513538383856834</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.609419684274552</v>
+        <v>-3.602022533168977</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.855374373961505</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.08612527084921</v>
+        <v>-21.06884343109813</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.420635402891946</v>
+        <v>-1.436882950718528</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.614420943960091</v>
+        <v>-3.608149730898905</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.421241955708036</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.24144916840957</v>
+        <v>-20.20988362625817</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.148799918989188</v>
+        <v>-1.166435250916993</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.720625704612173</v>
+        <v>-3.711552738742857</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.956633332409467</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.4356702977127</v>
+        <v>-19.41487972080004</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.155935224037928</v>
+        <v>-1.172431525618503</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.861786913851664</v>
+        <v>-3.853918439843786</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.452971405160211</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.00870411743833</v>
+        <v>-18.98736366380632</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.179200246187676</v>
+        <v>-1.198040069976919</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.084997585000251</v>
+        <v>-4.075518757742842</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.917428852353336</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.52917234125443</v>
+        <v>-18.51405073147223</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.167430265932964</v>
+        <v>-1.185170336283503</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.201388157263196</v>
+        <v>-4.194344498334347</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.3425853661334</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.08446609062952</v>
+        <v>-18.07628340135344</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.130824187187498</v>
+        <v>-1.148302411481202</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.347184041708657</v>
+        <v>-4.346503241960888</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.73050491461066</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.31545040631221</v>
+        <v>-17.30269850334437</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.226987151559976</v>
+        <v>-1.247254036358968</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.646631192304616</v>
+        <v>-4.641276440442351</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.09061221820452</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.46641456702628</v>
+        <v>-16.45050741907358</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.15109107198649</v>
+        <v>-1.170035634198467</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.604775100119618</v>
+        <v>-4.604748915513935</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.4110667079694</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.84987184160371</v>
+        <v>-15.8449098588267</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.106839088381456</v>
+        <v>-1.132945140247857</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.82862729410745</v>
+        <v>-4.824280649563997</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.69838551215961</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.95602104969055</v>
+        <v>-14.94388448495627</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.060165028750702</v>
+        <v>-1.082579051215737</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954143201451078</v>
+        <v>-4.952899432681114</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.95566344961001</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.1665028191231</v>
+        <v>-14.1569323457458</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.059955551905235</v>
+        <v>-1.082395758975953</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.134764611455531</v>
+        <v>-5.131897397133192</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-12.16650317927516</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.43549408995533</v>
+        <v>-13.41438929777446</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.008123124954841</v>
+        <v>-1.031584531647214</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.030929557617801</v>
+        <v>-5.025653359572586</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-12.34162462881461</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.74041063978525</v>
+        <v>-12.72208141580683</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.007573248235489</v>
+        <v>-1.034373192152502</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.112507696624596</v>
+        <v>-5.108121775172618</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-12.47948460710092</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.37906308135361</v>
+        <v>-12.36307737958386</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.204062529284113</v>
+        <v>-1.230600627144292</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.281162741831712</v>
+        <v>-5.276606620442791</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.56607742998208</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.70889428349133</v>
+        <v>-11.69733378008209</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.294621988040333</v>
+        <v>-1.322796623755727</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.76310350173849</v>
+        <v>-5.760157733599102</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.61617625360337</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.28496551747624</v>
+        <v>-11.27364067551815</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.310961181986807</v>
+        <v>-1.33988207896418</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.896762821449672</v>
+        <v>-5.894759699114887</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.62547606798605</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.51304334192807</v>
+        <v>-10.50302773025415</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.300068386022491</v>
+        <v>-1.329853374987418</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.350463484126847</v>
+        <v>-6.346156116491919</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.58672330408499</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.03095856669004</v>
+        <v>-10.01279954264856</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.505486617609173</v>
+        <v>-1.537261636606042</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.189166313116782</v>
+        <v>-6.180603947058293</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.51462274428403</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.471550650868766</v>
+        <v>-9.459099870866284</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.493258406755001</v>
+        <v>-1.52397294922169</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.411827107546017</v>
+        <v>-6.402688680162492</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.40104047813358</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.179330451441439</v>
+        <v>-9.163567318820002</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.569324686265429</v>
+        <v>-1.597944460277442</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.289243876038936</v>
+        <v>-6.277788111052425</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.2477799416431</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.535974689799021</v>
+        <v>-8.513076252128842</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.658640376251684</v>
+        <v>-1.691462779475891</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.711653934924385</v>
+        <v>-6.708446320728163</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.06806585205319</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.960960748990412</v>
+        <v>-7.93697565018437</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.569809101470573</v>
+        <v>-1.599436982801399</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.573503955338492</v>
+        <v>-6.567442219122773</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.85249132775805</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.501329273125935</v>
+        <v>-7.478928342963742</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.567295379324962</v>
+        <v>-1.602133997186795</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.635469824688381</v>
+        <v>-6.627077658566835</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.61216989358646</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.073302616321385</v>
+        <v>-7.043583088870666</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.707029527554704</v>
+        <v>-1.740009038413012</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.81446778914046</v>
+        <v>-6.808406052924741</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.35744813099648</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.645145036488417</v>
+        <v>-6.616355062539461</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.58897623283086</v>
+        <v>-1.620659605707837</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.004672764825057</v>
+        <v>-7.006230748863222</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.07844510990892</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.409143185463463</v>
+        <v>-6.383050225899903</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.7447746366474</v>
+        <v>-1.774900025486212</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.031263231896602</v>
+        <v>-7.031001385839768</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.79271294835676</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.268256914583649</v>
+        <v>-6.237463818299909</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.735335086298516</v>
+        <v>-1.764740398481032</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.081210367237787</v>
+        <v>-7.078172952978507</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.50583175112028</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.992441370617006</v>
+        <v>-5.961595905121899</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.65451630085654</v>
+        <v>-1.677663492280712</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.045481472782717</v>
+        <v>-7.046699056946998</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.20969222614912</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.893398099619348</v>
+        <v>-5.860235296521256</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.940871148610773</v>
+        <v>-1.967265231139693</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.084431073736852</v>
+        <v>-7.088345672286528</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.923480232908972</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.784758170638705</v>
+        <v>-5.747680768990937</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.885818015161315</v>
+        <v>-1.9099733139043</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.821171048195424</v>
+        <v>-6.824038262517762</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.646519488808812</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.518539284655047</v>
+        <v>-5.47995626818048</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.897627272324552</v>
+        <v>-1.920002017881062</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.732117204266003</v>
+        <v>-6.738113478967514</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.372513998340729</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.59896530101177</v>
+        <v>-5.555053717280621</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.978498426977894</v>
+        <v>-2.00054586496336</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.554284454766838</v>
+        <v>-6.563724005115723</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.115737038564436</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.670423089921911</v>
+        <v>-5.626629336916338</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.065457502452638</v>
+        <v>-2.087779878797781</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.386087640159183</v>
+        <v>-6.394663098520514</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.868220998702373</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.875998429142694</v>
+        <v>-5.834770767494098</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.926404153970666</v>
+        <v>-1.94798026905383</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.296680304053036</v>
+        <v>-6.311841190743754</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.627136651267875</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.02213471346204</v>
+        <v>-5.977071007080819</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.175432846323137</v>
+        <v>-2.192190993960547</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.150465465916639</v>
+        <v>-6.164343306928869</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.398318903391417</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.499755013431049</v>
+        <v>-6.454337814873101</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.165993295974253</v>
+        <v>-2.18698025742954</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.921795304483052</v>
+        <v>-5.939404451805173</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.167876969255717</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.974639022106137</v>
+        <v>-6.935545405820743</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.21535127768756</v>
+        <v>-2.234649332076264</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.972239947332223</v>
+        <v>-5.986536742035387</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.935408520182074</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.458569812044858</v>
+        <v>-7.418978688251478</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.170627971180224</v>
+        <v>-2.19229573238328</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.60298463798418</v>
+        <v>-5.618878693634036</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.70076175975665</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.86119740133646</v>
+        <v>-7.824709153316569</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.193591870364612</v>
+        <v>-2.209472833711625</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.441831482305374</v>
+        <v>-5.456507953790949</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.449624474838972</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.233791247909142</v>
+        <v>-8.193899001150402</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.462887447516075</v>
+        <v>-2.480470410232513</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.045566752194851</v>
+        <v>-5.059523147024131</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.186353774388708</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.147372140204787</v>
+        <v>-9.112166937863385</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.390657212738272</v>
+        <v>-2.409169728956473</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.047177105444383</v>
+        <v>-5.064262560652836</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.908823624645626</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.89156481833418</v>
+        <v>-9.861216860347058</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.481269040705858</v>
+        <v>-2.500527818186037</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.876937891593419</v>
+        <v>-4.894337562070073</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.60698768924679</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.65083982933724</v>
+        <v>-10.62346382409519</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.531203083744201</v>
+        <v>-2.542082787405676</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.553243796134584</v>
+        <v>-4.571010051090806</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.288804321096538</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.78740882363316</v>
+        <v>-11.75801660375349</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.619589220228694</v>
+        <v>-2.63298264603578</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.449945526713366</v>
+        <v>-4.469950565455523</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.95222865673832</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.60411976720288</v>
+        <v>-12.57610223912159</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.762242951992141</v>
+        <v>-2.776029146884479</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.089671537114747</v>
+        <v>-4.111129821472336</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.593217429105512</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.63187863258122</v>
+        <v>-13.60057493648665</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.857018132263396</v>
+        <v>-2.870607942613108</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.761591520203934</v>
+        <v>-3.777407022036739</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.223470883499519</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.63092607782765</v>
+        <v>-14.60014607384675</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.888924074288683</v>
+        <v>-2.900392931578035</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.318115946046147</v>
+        <v>-3.337990061759887</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.844304939665329</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.00711039873284</v>
+        <v>-15.98197317727673</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.804164505691348</v>
+        <v>-2.821249960899801</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.06692702372479</v>
+        <v>-3.085701385999826</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.461019083288696</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.42317387409393</v>
+        <v>-17.39338888512901</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.03339763614713</v>
+        <v>-3.044552278168281</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.791687541083183</v>
+        <v>-2.806940073893794</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.084867345612285</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.8954556978574</v>
+        <v>-18.86663953930276</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.234508500098884</v>
+        <v>-3.247836464391761</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.660070620615311</v>
+        <v>-2.673306938788296</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.716294248370698</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.53238632215841</v>
+        <v>-20.50875471552909</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.451735988848803</v>
+        <v>-3.468808351754414</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.712033970594122</v>
+        <v>-2.721028382646388</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.360205759747963</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.00555842251511</v>
+        <v>-21.98022481651637</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.448345082412796</v>
+        <v>-3.45800720190999</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.610110392971285</v>
+        <v>-2.623438357264162</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.020527778387998</v>
       </c>
       <c r="E93" t="n">
-        <v>-23.99655728486776</v>
+        <v>-23.97128914038323</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.681034580818793</v>
+        <v>-3.701785880822929</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.577706943438013</v>
+        <v>-2.588783031642113</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.693207948478853</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.17011521804544</v>
+        <v>-26.14719059576958</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.482411254406967</v>
+        <v>-3.50093686292801</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.73925286820207</v>
+        <v>-2.75320926303135</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.380973691281493</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.34318873601797</v>
+        <v>-28.31847046825279</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.992435003909248</v>
+        <v>-4.014718103345865</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.949148667360623</v>
+        <v>-2.958025248687313</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.079369314345753</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.37775878222789</v>
+        <v>-30.34809162398853</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.973555903211479</v>
+        <v>-3.995472418168529</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.282897651401904</v>
+        <v>-3.29128981752345</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.783775892122918</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.63864237535988</v>
+        <v>-32.6059247105584</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.120307525764386</v>
+        <v>-4.13792976538935</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.367133527885569</v>
+        <v>-3.375041278801972</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.48589153453998</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.14723233825733</v>
+        <v>-35.11831144127996</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.406452896673152</v>
+        <v>-4.427557688854014</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.784725619325264</v>
+        <v>-3.789491217559652</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.187097622488318</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.5504030786732</v>
+        <v>-37.52332819639651</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.253796645538626</v>
+        <v>-4.271222500620963</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.185703578458808</v>
+        <v>-4.194370682940031</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.862848891957435</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.17550144455917</v>
+        <v>-40.14991908480643</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.376746461525275</v>
+        <v>-4.395036408595166</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.436525916300596</v>
+        <v>-4.444865713210776</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5320723164320041</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.61832877028262</v>
+        <v>-42.59430439456806</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.531968804016779</v>
+        <v>-4.550520597143505</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.952860155772589</v>
+        <v>-4.964027890096581</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.14944480497365</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.98035040286695</v>
+        <v>-44.95556667358756</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.618692218040373</v>
+        <v>-4.635293258043681</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.147176114549487</v>
+        <v>-5.152976004708372</v>
       </c>
     </row>
   </sheetData>
